--- a/data/cci/cci-datatype.xlsx
+++ b/data/cci/cci-datatype.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24FEA81-7862-D34C-85A4-6FF90FB2461F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01B1F068-9F27-4445-8169-AA66171EBCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{2FA15D6C-4BC9-894D-B125-EA09032BC728}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{43594B32-44C5-1E42-8A39-9DE60AB9706E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="303">
   <si>
     <t>URI</t>
   </si>
@@ -46,7 +46,7 @@
     <t>AOD</t>
   </si>
   <si>
-    <t>http://www.esa-aerosol-cci.org/</t>
+    <t>https://climate.esa.int/projects/aerosol</t>
   </si>
   <si>
     <t>dtype_aai</t>
@@ -94,7 +94,7 @@
     <t>CFC</t>
   </si>
   <si>
-    <t>http://www.esa-cloud-cci.org/</t>
+    <t>https://climate.esa.int/projects/cloud</t>
   </si>
   <si>
     <t>dtype_ctp</t>
@@ -187,7 +187,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>http://www.esa-fire-cci.org/</t>
+    <t>https://climate.esa.int/projects/fire</t>
   </si>
   <si>
     <t>dtype_co2</t>
@@ -199,7 +199,7 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>http://www.esa-ghg-cci.org/</t>
+    <t>https://climate.esa.int/projects/ghgs</t>
   </si>
   <si>
     <t>dtype_ch4</t>
@@ -220,7 +220,7 @@
     <t>GA</t>
   </si>
   <si>
-    <t>http://www.esa-glaciers-cci.org/</t>
+    <t>https://climate.esa.int/projects/glaciers</t>
   </si>
   <si>
     <t>dtype_sec</t>
@@ -271,7 +271,7 @@
     <t>Map</t>
   </si>
   <si>
-    <t>http://www.esa-landcover-cci.org/</t>
+    <t>https://climate.esa.int/projects/land-cover/</t>
   </si>
   <si>
     <t>dtype_lccs</t>
@@ -349,7 +349,7 @@
     <t>OC_PRODUCTS</t>
   </si>
   <si>
-    <t>http://www.esa-oceancolour-cci.org/</t>
+    <t>https://climate.esa.int/projects/ocean-colour/</t>
   </si>
   <si>
     <t>dtype_chlorA</t>
@@ -451,7 +451,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>http://www.esa-ozone-cci.org/</t>
+    <t>https://climate.esa.int/projects/ozone</t>
   </si>
   <si>
     <t>dtype_np</t>
@@ -481,7 +481,7 @@
     <t>SICONC</t>
   </si>
   <si>
-    <t>http://www.esa-seaice-cci.org/</t>
+    <t>https://climate.esa.int/projects/sea-ice/</t>
   </si>
   <si>
     <t>SIC</t>
@@ -520,7 +520,7 @@
     <t>SSH</t>
   </si>
   <si>
-    <t>http://www.esa-sealevel-cci.org/</t>
+    <t>https://climate.esa.int/projects/sea-level/</t>
   </si>
   <si>
     <t>dtype_sla</t>
@@ -586,7 +586,7 @@
     <t>SSTint</t>
   </si>
   <si>
-    <t>http://www.esa-sst-cci.org/</t>
+    <t>https://climate.esa.int/projects/sea-surface-temperature/</t>
   </si>
   <si>
     <t>dtype_sstSkin</t>
@@ -634,7 +634,7 @@
     <t>SSMV</t>
   </si>
   <si>
-    <t>http://www.esa-soilmoisture-cci.org/</t>
+    <t>https://climate.esa.int/projects/soil-moisture/</t>
   </si>
   <si>
     <t>dtype_ssmva</t>
@@ -727,7 +727,7 @@
     <t>LK_PRODUCTS</t>
   </si>
   <si>
-    <t>http://cci.esa.int/lakes</t>
+    <t>https://climate.esa.int/projects/lakes</t>
   </si>
   <si>
     <t>dtype_sss</t>
@@ -739,7 +739,7 @@
     <t>SSS</t>
   </si>
   <si>
-    <t>http://cci.esa.int/salinity</t>
+    <t>https://climate.esa.int/projects/sea-surface-salinity</t>
   </si>
   <si>
     <t>dtype_swh</t>
@@ -751,7 +751,7 @@
     <t>SWH</t>
   </si>
   <si>
-    <t>http://cci.esa.int/sea_state</t>
+    <t>https://climate.esa.int/projects/sea-state/</t>
   </si>
   <si>
     <t>dtype_unspecified</t>
@@ -775,7 +775,7 @@
     <t>ground temperature at a certain depth</t>
   </si>
   <si>
-    <t>http://cci.esa.int/permafrost</t>
+    <t>https://climate.esa.int/projects/permafrost</t>
   </si>
   <si>
     <t>dtype_pfr</t>
@@ -799,7 +799,7 @@
     <t>AGB</t>
   </si>
   <si>
-    <t>http://cci.esa.int/biomass</t>
+    <t>https://climate.esa.int/projects/biomass</t>
   </si>
   <si>
     <t>dtype_alt</t>
@@ -820,25 +820,25 @@
     <t>SWE</t>
   </si>
   <si>
-    <t>http://cci.esa.int/snow</t>
+    <t>https://climate.esa.int/projects/snow</t>
   </si>
   <si>
     <t>dtype_scfv</t>
   </si>
   <si>
-    <t>snow cover fraction – viewable</t>
+    <t>snow cover fraction - viewable</t>
   </si>
   <si>
     <t>SCFV</t>
   </si>
   <si>
-    <t>snow cover fraction -viewable</t>
+    <t>snow cover fraction  - viewable</t>
   </si>
   <si>
     <t>dtype_scfg</t>
   </si>
   <si>
-    <t>snow cover fraction – snow on ground</t>
+    <t>snow cover fraction - snow on ground</t>
   </si>
   <si>
     <t>SCFG</t>
@@ -878,6 +878,57 @@
   </si>
   <si>
     <t>https://climate.esa.int/projects/land-cover</t>
+  </si>
+  <si>
+    <t>dtype_vp</t>
+  </si>
+  <si>
+    <t>vegetation parameters</t>
+  </si>
+  <si>
+    <t>VP_PRODUCTS</t>
+  </si>
+  <si>
+    <t>https://climate.esa.int/en/projects/vegetation-parameters/</t>
+  </si>
+  <si>
+    <t>dtype_uncert</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>UNCERT</t>
+  </si>
+  <si>
+    <t>land cover uncertainty maps</t>
+  </si>
+  <si>
+    <t>https://climate.esa.int/projects/high-resolution-land-cover</t>
+  </si>
+  <si>
+    <t>dtype_wl</t>
+  </si>
+  <si>
+    <t>water level</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>https://climate.esa.int/en/projects/river-discharge/</t>
+  </si>
+  <si>
+    <t>dtype_lcchange</t>
+  </si>
+  <si>
+    <t>land cover change</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>land cover change uncertainty maps</t>
   </si>
 </sst>
 </file>
@@ -887,7 +938,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00;[Red]&quot;-&quot;[$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -923,110 +974,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF9900"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF008000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF666699"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF666699"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF666699"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333399"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF9900"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF993300"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF666699"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1085,8 +1032,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1131,14 +1085,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1149,84 +1097,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF33CCCC"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF339966"/>
-        <bgColor rgb="FF339966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF333399"/>
-        <bgColor rgb="FF333399"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF969696"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor rgb="FFFF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1246,98 +1122,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF333399"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF99CCFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF33CCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF333333"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF333333"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF333333"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF333333"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF333399"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,41 +1204,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1463,14 +1250,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1479,49 +1266,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
-    <cellStyle name="Accent" xfId="7" xr:uid="{61DBECEA-1DEA-DC49-9A18-BDE28F05F0E9}"/>
-    <cellStyle name="Accent 1" xfId="8" xr:uid="{7784B87A-9DC9-A348-A32F-0218212CCD19}"/>
-    <cellStyle name="Accent 2" xfId="9" xr:uid="{122E0D88-DEFA-E540-9AA1-ED87D9C6408C}"/>
-    <cellStyle name="Accent 3" xfId="10" xr:uid="{45354178-77F3-8B4F-9B22-40D8E8762142}"/>
+  <cellStyles count="22">
+    <cellStyle name="Accent" xfId="7" xr:uid="{A6C38073-034C-B44E-A234-9CC0A5CF7FD0}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{323A89B8-42D7-E043-AA3E-E1D0A30F3ED9}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{C401B317-2866-9B42-8BEF-BE55DB47D925}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{A9D53BE8-0694-2B4D-8047-A5FF4AC16CAB}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11" xr:uid="{EF521F6F-9B43-B041-8322-B23E90153280}"/>
-    <cellStyle name="Excel_BuiltIn_20% - Accent1" xfId="12" xr:uid="{B11DAAC6-CE16-9D44-B335-ECAE0C5A869A}"/>
-    <cellStyle name="Footnote" xfId="13" xr:uid="{E55B12B5-16B9-D747-A4D2-49A13007BE35}"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{AEFFD720-954C-0745-A04C-CFF04B2C51E1}"/>
+    <cellStyle name="Excel_BuiltIn_20% - Accent1" xfId="12" xr:uid="{95C34FB9-1FC4-1749-BD5D-8EFBDA2F060A}"/>
+    <cellStyle name="Footnote" xfId="13" xr:uid="{A3E2682A-0BFA-624F-8D26-A6D05DEBA21A}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="14" xr:uid="{E694C3B0-4156-B347-A68C-84817DBF36B1}"/>
+    <cellStyle name="Heading" xfId="14" xr:uid="{D67161A1-3B32-AD4B-B7F6-B913786CE3E8}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="15" xr:uid="{12C8824A-956F-BF4F-9F78-3C334B0C258C}"/>
+    <cellStyle name="Heading1" xfId="15" xr:uid="{147EC8A0-D9A6-E540-B8E4-C0485F71D913}"/>
+    <cellStyle name="Hyperlink" xfId="16" xr:uid="{633A1662-BAFA-154F-97F4-8D9B70689B45}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="16" xr:uid="{B5C58CD4-C27A-9F48-8572-434D4F7E1D75}"/>
-    <cellStyle name="Result2" xfId="17" xr:uid="{A68BEF75-0F60-B54D-9C87-7C83F8A8F830}"/>
-    <cellStyle name="Status" xfId="18" xr:uid="{D9ADB468-029C-BE4D-AAFA-AC28AB4355A9}"/>
-    <cellStyle name="Text" xfId="19" xr:uid="{90D744E4-630E-0741-A1E9-971494E3CF60}"/>
-    <cellStyle name="Warning" xfId="20" xr:uid="{49D63021-DFAB-BC45-AEF6-9DFBE836CB7E}"/>
+    <cellStyle name="Result" xfId="17" xr:uid="{FE47846E-2EB2-0D46-BEC9-839C27A5F055}"/>
+    <cellStyle name="Result2" xfId="18" xr:uid="{B1836B7D-49CE-0B4C-BC52-EB00B6A40F28}"/>
+    <cellStyle name="Status" xfId="19" xr:uid="{D9EE067B-9703-1A40-B391-1CA5DA428744}"/>
+    <cellStyle name="Text" xfId="20" xr:uid="{4D7E2CB3-5A5E-CF48-B499-0CD9D591F807}"/>
+    <cellStyle name="Warning" xfId="21" xr:uid="{C2CAEA3E-0425-E04E-B046-F88914248D55}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1852,12 +1646,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FB6AB3-2DF0-AE49-9D70-4A16533FD345}">
-  <dimension ref="A1:BL86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EC9CB0-CBFC-714F-A334-253ED842CDDE}">
+  <dimension ref="A1:BL90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="4" customWidth="1"/>
     <col min="2" max="2" width="57" style="4" customWidth="1"/>
@@ -1867,6 +1661,7 @@
     <col min="6" max="6" width="21.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="38.83203125" style="3" customWidth="1"/>
     <col min="8" max="64" width="10.6640625" style="4" customWidth="1"/>
+    <col min="65" max="65" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="15" x14ac:dyDescent="0.2">
@@ -3408,7 +3203,7 @@
       <c r="D47" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="14" t="s">
         <v>143</v>
       </c>
       <c r="F47" s="6"/>
@@ -3916,7 +3711,7 @@
       <c r="D62" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="14" t="s">
         <v>188</v>
       </c>
       <c r="F62" s="6"/>
@@ -4133,7 +3928,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>240</v>
       </c>
@@ -4146,7 +3941,7 @@
       <c r="D75" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="19" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4334,23 +4129,125 @@
         <v>285</v>
       </c>
     </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" xr:uid="{D4656EBA-83BF-E74E-8928-A30767B3CE89}"/>
-    <hyperlink ref="E73" r:id="rId2" xr:uid="{EB2437A6-869F-E541-AEE4-106983A489AB}"/>
-    <hyperlink ref="E74" r:id="rId3" xr:uid="{46094E23-A51D-124A-AFF5-6F60EE9E0A90}"/>
-    <hyperlink ref="E75" r:id="rId4" xr:uid="{D27CC519-0BED-904F-AB81-5B26F1EDF1F6}"/>
-    <hyperlink ref="E77" r:id="rId5" xr:uid="{AC68315E-D9AC-7741-B6EC-B54AFD52A5E8}"/>
-    <hyperlink ref="E78" r:id="rId6" xr:uid="{0ADEA30E-6E1A-3645-A54D-EA743967F7D5}"/>
-    <hyperlink ref="E79" r:id="rId7" xr:uid="{4A81687D-1533-CA4B-A79D-ED8E22C981AE}"/>
-    <hyperlink ref="E80" r:id="rId8" xr:uid="{CF28406B-19B9-A74A-8793-D7B152BBF7F0}"/>
-    <hyperlink ref="E81" r:id="rId9" xr:uid="{CC91EDCB-7849-7B49-9725-AC22F2DD2527}"/>
-    <hyperlink ref="E82" r:id="rId10" xr:uid="{B64147C2-1B6D-024E-9F5B-05750096AD05}"/>
-    <hyperlink ref="E83" r:id="rId11" xr:uid="{745DAA83-1A45-6F46-B014-D295E64FCFC6}"/>
-    <hyperlink ref="E84" r:id="rId12" xr:uid="{4477BDAF-B12E-7E41-A73E-C61E9452676A}"/>
-    <hyperlink ref="E86" r:id="rId13" xr:uid="{D4842FEF-5F70-3545-B997-A4676569217A}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E0F83213-E01E-D342-9021-BC7F35843E2A}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{AF8EEE63-5FB8-154C-8DE7-0A9592B34D22}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{200E2BB5-8735-0D4F-A435-651FDBB69676}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{8B447903-8879-484A-87E0-8B4CA2B6B983}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{084E79DE-79F7-CA4C-B72F-13923159108A}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{B72B764A-D50D-6E42-8A87-BADA21AF756B}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{D4AE1C68-576B-FC4D-AD98-DC2554F49379}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{9D771F01-1F9C-7945-BFB4-C65B69FFA0EE}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{43CAE313-6A5D-8147-928F-A9B7494B5FCD}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{89E67E14-2E9B-7E4C-81C1-C8A11D8F09AF}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{F03E091E-C1C7-2F40-84F1-DAB315F179B5}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{B1E49323-4B9E-2A41-ADD3-5178292E19AF}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{71A8CCDF-A49F-2545-B5A7-3AFD0FB4CA7F}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{10AAD99F-97AC-5C4F-A289-C20D0E6BF35D}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{E7FFC541-B40A-8F41-BC1E-E1B68341569C}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{70463E91-9BD4-ED4C-A0FC-286179673820}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{257CEE95-8779-1940-B97E-03516907B36E}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{1C466A6C-7B66-C94C-B571-2AEE3E67C3F3}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{2A4297A6-7A4C-E44C-8798-73A441C75CE5}"/>
+    <hyperlink ref="E34" r:id="rId20" xr:uid="{108CCC64-6D00-0B4D-96FE-2A8C4CE5BF10}"/>
+    <hyperlink ref="E35" r:id="rId21" xr:uid="{A023875C-5FBB-9347-8128-A96AF90B2173}"/>
+    <hyperlink ref="E36" r:id="rId22" xr:uid="{7B82EE7A-55A3-174A-B580-70146110CFF1}"/>
+    <hyperlink ref="E37" r:id="rId23" xr:uid="{44EAC731-59C8-554E-A539-D4A64D08D325}"/>
+    <hyperlink ref="E38" r:id="rId24" xr:uid="{EB401B9C-1ED1-3D4F-9591-7C73EFB58047}"/>
+    <hyperlink ref="E39" r:id="rId25" xr:uid="{62C0D386-69D5-F64D-8332-AC42462E93C7}"/>
+    <hyperlink ref="E40" r:id="rId26" xr:uid="{F68B7531-0709-E043-B1DD-E7D32114CE82}"/>
+    <hyperlink ref="E41" r:id="rId27" xr:uid="{1DAAA48D-3170-BC4D-9DA3-FA4344E1B8ED}"/>
+    <hyperlink ref="E42" r:id="rId28" xr:uid="{F51E06AB-4877-E94D-AC3C-7019B026883D}"/>
+    <hyperlink ref="E43" r:id="rId29" xr:uid="{314039D5-C201-4649-89D9-AD20E4F93F97}"/>
+    <hyperlink ref="E44" r:id="rId30" xr:uid="{FC255F9C-8006-1145-AB08-2D64A427324F}"/>
+    <hyperlink ref="E45" r:id="rId31" xr:uid="{CD27FAC9-81FD-4C44-9A4D-95D913BA142B}"/>
+    <hyperlink ref="E46" r:id="rId32" xr:uid="{DB766FB4-678A-C04B-AC4B-3F002F9E406B}"/>
+    <hyperlink ref="E47" r:id="rId33" xr:uid="{0D0E19F3-AFFE-4043-8942-9C848410318A}"/>
+    <hyperlink ref="E73" r:id="rId34" xr:uid="{E36313CF-F4B4-C94E-AE64-49158DF143EE}"/>
+    <hyperlink ref="E77" r:id="rId35" xr:uid="{BB4B9FD8-526E-8A49-AB18-16C89ABDB960}"/>
+    <hyperlink ref="E78" r:id="rId36" xr:uid="{9F1376B6-B3F2-1243-8ED2-5FAB773AF6D0}"/>
+    <hyperlink ref="E79" r:id="rId37" xr:uid="{348EF7C9-C1F9-5641-8FFA-654F4B61FD03}"/>
+    <hyperlink ref="E80" r:id="rId38" xr:uid="{BD0E0567-07D7-6A40-8C48-0427C1F5BB50}"/>
+    <hyperlink ref="E81" r:id="rId39" xr:uid="{7CE057B2-60F2-1B41-A57A-2437B8923056}"/>
+    <hyperlink ref="E82" r:id="rId40" xr:uid="{B80E5712-414E-7D4C-9D0B-92F45EDC6D4E}"/>
+    <hyperlink ref="E83" r:id="rId41" xr:uid="{134C9E0F-A68C-9847-B742-4F99D5DA2268}"/>
+    <hyperlink ref="E84" r:id="rId42" xr:uid="{31FD0ED8-5D49-BE41-8B8C-F49CC4C1A6C1}"/>
+    <hyperlink ref="E85" r:id="rId43" xr:uid="{63CE8B18-38EB-E046-8C89-3F3061CDFB3C}"/>
+    <hyperlink ref="E86" r:id="rId44" xr:uid="{CC833151-E51C-B540-9834-1F10D278BB3E}"/>
+    <hyperlink ref="E88" r:id="rId45" xr:uid="{B6E15BE5-5FDD-324E-BC93-F1F45D4D42BB}"/>
+    <hyperlink ref="E89" r:id="rId46" xr:uid="{20F6A3C3-0D34-F243-AF3B-2F6D9DB0F4EB}"/>
+    <hyperlink ref="E90" r:id="rId47" xr:uid="{8F8793D2-4111-9D4A-8A38-8D2824574D36}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="1.1437007874015748" bottom="1.1437007874015748" header="0.75" footer="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="1.143700787401575" bottom="1.143700787401575" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/data/cci/cci-datatype.xlsx
+++ b/data/cci/cci-datatype.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/alison_waterfall_stfc_ac_uk/Documents/Documents/GitHub/cci-vocabularies/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01B1F068-9F27-4445-8169-AA66171EBCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{01B1F068-9F27-4445-8169-AA66171EBCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5DA4676-A240-4A59-9C05-1AB6C01A6147}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{43594B32-44C5-1E42-8A39-9DE60AB9706E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{43594B32-44C5-1E42-8A39-9DE60AB9706E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="307">
   <si>
     <t>URI</t>
   </si>
@@ -929,6 +929,18 @@
   </si>
   <si>
     <t>land cover change uncertainty maps</t>
+  </si>
+  <si>
+    <t>dtype_co</t>
+  </si>
+  <si>
+    <t>carbon monoxide</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>https://climate.esa.int/projects/precursors-for-aerosols-and-ozone/</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1248,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1250,22 +1262,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="16" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1282,11 +1285,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="16"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="16" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1647,24 +1650,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EC9CB0-CBFC-714F-A334-253ED842CDDE}">
-  <dimension ref="A1:BL90"/>
+  <dimension ref="A1:BL91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="4" customWidth="1"/>
     <col min="2" max="2" width="57" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="74.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="74.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="52" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" style="3" customWidth="1"/>
-    <col min="8" max="64" width="10.6640625" style="4" customWidth="1"/>
-    <col min="65" max="65" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" style="3" customWidth="1"/>
+    <col min="8" max="64" width="10.7109375" style="4" customWidth="1"/>
+    <col min="65" max="65" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1707,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1720,7 +1725,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1738,7 +1743,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1756,83 +1761,25 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="10"/>
-      <c r="BH6" s="10"/>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="10"/>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="10"/>
-    </row>
-    <row r="7" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1850,7 +1797,7 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1868,7 +1815,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -1886,7 +1833,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1904,7 +1851,7 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1922,7 +1869,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1940,7 +1887,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -1958,7 +1905,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1976,7 +1923,7 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1994,7 +1941,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -2012,17 +1959,17 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -2030,7 +1977,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -2048,7 +1995,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
@@ -2066,26 +2013,26 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -2097,13 +2044,13 @@
       <c r="D21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -2115,13 +2062,13 @@
       <c r="D22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -2133,13 +2080,13 @@
       <c r="D23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2151,13 +2098,13 @@
       <c r="D24" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -2169,13 +2116,13 @@
       <c r="D25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -2187,31 +2134,31 @@
       <c r="D26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -2223,13 +2170,13 @@
       <c r="D28" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -2241,13 +2188,13 @@
       <c r="D29" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -2259,13 +2206,13 @@
       <c r="D30" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -2277,13 +2224,13 @@
       <c r="D31" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2295,13 +2242,13 @@
       <c r="D32" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2313,867 +2260,229 @@
       <c r="D33" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AP34" s="10"/>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="10"/>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="10"/>
-      <c r="AU34" s="10"/>
-      <c r="AV34" s="10"/>
-      <c r="AW34" s="10"/>
-      <c r="AX34" s="10"/>
-      <c r="AY34" s="10"/>
-      <c r="AZ34" s="10"/>
-      <c r="BA34" s="10"/>
-      <c r="BB34" s="10"/>
-      <c r="BC34" s="10"/>
-      <c r="BD34" s="10"/>
-      <c r="BE34" s="10"/>
-      <c r="BF34" s="10"/>
-      <c r="BG34" s="10"/>
-      <c r="BH34" s="10"/>
-      <c r="BI34" s="10"/>
-      <c r="BJ34" s="10"/>
-      <c r="BK34" s="10"/>
-      <c r="BL34" s="10"/>
-    </row>
-    <row r="35" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="10"/>
-      <c r="AK35" s="10"/>
-      <c r="AL35" s="10"/>
-      <c r="AM35" s="10"/>
-      <c r="AN35" s="10"/>
-      <c r="AO35" s="10"/>
-      <c r="AP35" s="10"/>
-      <c r="AQ35" s="10"/>
-      <c r="AR35" s="10"/>
-      <c r="AS35" s="10"/>
-      <c r="AT35" s="10"/>
-      <c r="AU35" s="10"/>
-      <c r="AV35" s="10"/>
-      <c r="AW35" s="10"/>
-      <c r="AX35" s="10"/>
-      <c r="AY35" s="10"/>
-      <c r="AZ35" s="10"/>
-      <c r="BA35" s="10"/>
-      <c r="BB35" s="10"/>
-      <c r="BC35" s="10"/>
-      <c r="BD35" s="10"/>
-      <c r="BE35" s="10"/>
-      <c r="BF35" s="10"/>
-      <c r="BG35" s="10"/>
-      <c r="BH35" s="10"/>
-      <c r="BI35" s="10"/>
-      <c r="BJ35" s="10"/>
-      <c r="BK35" s="10"/>
-      <c r="BL35" s="10"/>
-    </row>
-    <row r="36" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="10"/>
-      <c r="AK36" s="10"/>
-      <c r="AL36" s="10"/>
-      <c r="AM36" s="10"/>
-      <c r="AN36" s="10"/>
-      <c r="AO36" s="10"/>
-      <c r="AP36" s="10"/>
-      <c r="AQ36" s="10"/>
-      <c r="AR36" s="10"/>
-      <c r="AS36" s="10"/>
-      <c r="AT36" s="10"/>
-      <c r="AU36" s="10"/>
-      <c r="AV36" s="10"/>
-      <c r="AW36" s="10"/>
-      <c r="AX36" s="10"/>
-      <c r="AY36" s="10"/>
-      <c r="AZ36" s="10"/>
-      <c r="BA36" s="10"/>
-      <c r="BB36" s="10"/>
-      <c r="BC36" s="10"/>
-      <c r="BD36" s="10"/>
-      <c r="BE36" s="10"/>
-      <c r="BF36" s="10"/>
-      <c r="BG36" s="10"/>
-      <c r="BH36" s="10"/>
-      <c r="BI36" s="10"/>
-      <c r="BJ36" s="10"/>
-      <c r="BK36" s="10"/>
-      <c r="BL36" s="10"/>
-    </row>
-    <row r="37" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="10"/>
-      <c r="AK37" s="10"/>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="10"/>
-      <c r="AN37" s="10"/>
-      <c r="AO37" s="10"/>
-      <c r="AP37" s="10"/>
-      <c r="AQ37" s="10"/>
-      <c r="AR37" s="10"/>
-      <c r="AS37" s="10"/>
-      <c r="AT37" s="10"/>
-      <c r="AU37" s="10"/>
-      <c r="AV37" s="10"/>
-      <c r="AW37" s="10"/>
-      <c r="AX37" s="10"/>
-      <c r="AY37" s="10"/>
-      <c r="AZ37" s="10"/>
-      <c r="BA37" s="10"/>
-      <c r="BB37" s="10"/>
-      <c r="BC37" s="10"/>
-      <c r="BD37" s="10"/>
-      <c r="BE37" s="10"/>
-      <c r="BF37" s="10"/>
-      <c r="BG37" s="10"/>
-      <c r="BH37" s="10"/>
-      <c r="BI37" s="10"/>
-      <c r="BJ37" s="10"/>
-      <c r="BK37" s="10"/>
-      <c r="BL37" s="10"/>
-    </row>
-    <row r="38" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="10"/>
-      <c r="AL38" s="10"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="10"/>
-      <c r="AO38" s="10"/>
-      <c r="AP38" s="10"/>
-      <c r="AQ38" s="10"/>
-      <c r="AR38" s="10"/>
-      <c r="AS38" s="10"/>
-      <c r="AT38" s="10"/>
-      <c r="AU38" s="10"/>
-      <c r="AV38" s="10"/>
-      <c r="AW38" s="10"/>
-      <c r="AX38" s="10"/>
-      <c r="AY38" s="10"/>
-      <c r="AZ38" s="10"/>
-      <c r="BA38" s="10"/>
-      <c r="BB38" s="10"/>
-      <c r="BC38" s="10"/>
-      <c r="BD38" s="10"/>
-      <c r="BE38" s="10"/>
-      <c r="BF38" s="10"/>
-      <c r="BG38" s="10"/>
-      <c r="BH38" s="10"/>
-      <c r="BI38" s="10"/>
-      <c r="BJ38" s="10"/>
-      <c r="BK38" s="10"/>
-      <c r="BL38" s="10"/>
-    </row>
-    <row r="39" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="10"/>
-      <c r="AK39" s="10"/>
-      <c r="AL39" s="10"/>
-      <c r="AM39" s="10"/>
-      <c r="AN39" s="10"/>
-      <c r="AO39" s="10"/>
-      <c r="AP39" s="10"/>
-      <c r="AQ39" s="10"/>
-      <c r="AR39" s="10"/>
-      <c r="AS39" s="10"/>
-      <c r="AT39" s="10"/>
-      <c r="AU39" s="10"/>
-      <c r="AV39" s="10"/>
-      <c r="AW39" s="10"/>
-      <c r="AX39" s="10"/>
-      <c r="AY39" s="10"/>
-      <c r="AZ39" s="10"/>
-      <c r="BA39" s="10"/>
-      <c r="BB39" s="10"/>
-      <c r="BC39" s="10"/>
-      <c r="BD39" s="10"/>
-      <c r="BE39" s="10"/>
-      <c r="BF39" s="10"/>
-      <c r="BG39" s="10"/>
-      <c r="BH39" s="10"/>
-      <c r="BI39" s="10"/>
-      <c r="BJ39" s="10"/>
-      <c r="BK39" s="10"/>
-      <c r="BL39" s="10"/>
-    </row>
-    <row r="40" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="10"/>
-      <c r="AN40" s="10"/>
-      <c r="AO40" s="10"/>
-      <c r="AP40" s="10"/>
-      <c r="AQ40" s="10"/>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="10"/>
-      <c r="AU40" s="10"/>
-      <c r="AV40" s="10"/>
-      <c r="AW40" s="10"/>
-      <c r="AX40" s="10"/>
-      <c r="AY40" s="10"/>
-      <c r="AZ40" s="10"/>
-      <c r="BA40" s="10"/>
-      <c r="BB40" s="10"/>
-      <c r="BC40" s="10"/>
-      <c r="BD40" s="10"/>
-      <c r="BE40" s="10"/>
-      <c r="BF40" s="10"/>
-      <c r="BG40" s="10"/>
-      <c r="BH40" s="10"/>
-      <c r="BI40" s="10"/>
-      <c r="BJ40" s="10"/>
-      <c r="BK40" s="10"/>
-      <c r="BL40" s="10"/>
-    </row>
-    <row r="41" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
-      <c r="AJ41" s="10"/>
-      <c r="AK41" s="10"/>
-      <c r="AL41" s="10"/>
-      <c r="AM41" s="10"/>
-      <c r="AN41" s="10"/>
-      <c r="AO41" s="10"/>
-      <c r="AP41" s="10"/>
-      <c r="AQ41" s="10"/>
-      <c r="AR41" s="10"/>
-      <c r="AS41" s="10"/>
-      <c r="AT41" s="10"/>
-      <c r="AU41" s="10"/>
-      <c r="AV41" s="10"/>
-      <c r="AW41" s="10"/>
-      <c r="AX41" s="10"/>
-      <c r="AY41" s="10"/>
-      <c r="AZ41" s="10"/>
-      <c r="BA41" s="10"/>
-      <c r="BB41" s="10"/>
-      <c r="BC41" s="10"/>
-      <c r="BD41" s="10"/>
-      <c r="BE41" s="10"/>
-      <c r="BF41" s="10"/>
-      <c r="BG41" s="10"/>
-      <c r="BH41" s="10"/>
-      <c r="BI41" s="10"/>
-      <c r="BJ41" s="10"/>
-      <c r="BK41" s="10"/>
-      <c r="BL41" s="10"/>
-    </row>
-    <row r="42" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
-      <c r="AL42" s="10"/>
-      <c r="AM42" s="10"/>
-      <c r="AN42" s="10"/>
-      <c r="AO42" s="10"/>
-      <c r="AP42" s="10"/>
-      <c r="AQ42" s="10"/>
-      <c r="AR42" s="10"/>
-      <c r="AS42" s="10"/>
-      <c r="AT42" s="10"/>
-      <c r="AU42" s="10"/>
-      <c r="AV42" s="10"/>
-      <c r="AW42" s="10"/>
-      <c r="AX42" s="10"/>
-      <c r="AY42" s="10"/>
-      <c r="AZ42" s="10"/>
-      <c r="BA42" s="10"/>
-      <c r="BB42" s="10"/>
-      <c r="BC42" s="10"/>
-      <c r="BD42" s="10"/>
-      <c r="BE42" s="10"/>
-      <c r="BF42" s="10"/>
-      <c r="BG42" s="10"/>
-      <c r="BH42" s="10"/>
-      <c r="BI42" s="10"/>
-      <c r="BJ42" s="10"/>
-      <c r="BK42" s="10"/>
-      <c r="BL42" s="10"/>
-    </row>
-    <row r="43" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="10"/>
-      <c r="AG43" s="10"/>
-      <c r="AH43" s="10"/>
-      <c r="AI43" s="10"/>
-      <c r="AJ43" s="10"/>
-      <c r="AK43" s="10"/>
-      <c r="AL43" s="10"/>
-      <c r="AM43" s="10"/>
-      <c r="AN43" s="10"/>
-      <c r="AO43" s="10"/>
-      <c r="AP43" s="10"/>
-      <c r="AQ43" s="10"/>
-      <c r="AR43" s="10"/>
-      <c r="AS43" s="10"/>
-      <c r="AT43" s="10"/>
-      <c r="AU43" s="10"/>
-      <c r="AV43" s="10"/>
-      <c r="AW43" s="10"/>
-      <c r="AX43" s="10"/>
-      <c r="AY43" s="10"/>
-      <c r="AZ43" s="10"/>
-      <c r="BA43" s="10"/>
-      <c r="BB43" s="10"/>
-      <c r="BC43" s="10"/>
-      <c r="BD43" s="10"/>
-      <c r="BE43" s="10"/>
-      <c r="BF43" s="10"/>
-      <c r="BG43" s="10"/>
-      <c r="BH43" s="10"/>
-      <c r="BI43" s="10"/>
-      <c r="BJ43" s="10"/>
-      <c r="BK43" s="10"/>
-      <c r="BL43" s="10"/>
-    </row>
-    <row r="44" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="10"/>
-      <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
-      <c r="AJ45" s="10"/>
-      <c r="AK45" s="10"/>
-      <c r="AL45" s="10"/>
-      <c r="AM45" s="10"/>
-      <c r="AN45" s="10"/>
-      <c r="AO45" s="10"/>
-      <c r="AP45" s="10"/>
-      <c r="AQ45" s="10"/>
-      <c r="AR45" s="10"/>
-      <c r="AS45" s="10"/>
-      <c r="AT45" s="10"/>
-      <c r="AU45" s="10"/>
-      <c r="AV45" s="10"/>
-      <c r="AW45" s="10"/>
-      <c r="AX45" s="10"/>
-      <c r="AY45" s="10"/>
-      <c r="AZ45" s="10"/>
-      <c r="BA45" s="10"/>
-      <c r="BB45" s="10"/>
-      <c r="BC45" s="10"/>
-      <c r="BD45" s="10"/>
-      <c r="BE45" s="10"/>
-      <c r="BF45" s="10"/>
-      <c r="BG45" s="10"/>
-      <c r="BH45" s="10"/>
-      <c r="BI45" s="10"/>
-      <c r="BJ45" s="10"/>
-      <c r="BK45" s="10"/>
-      <c r="BL45" s="10"/>
-    </row>
-    <row r="46" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3185,13 +2494,13 @@
       <c r="D46" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3203,247 +2512,73 @@
       <c r="D47" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="6" t="s">
         <v>151</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="10"/>
-      <c r="AI48" s="10"/>
-      <c r="AJ48" s="10"/>
-      <c r="AK48" s="10"/>
-      <c r="AL48" s="10"/>
-      <c r="AM48" s="10"/>
-      <c r="AN48" s="10"/>
-      <c r="AO48" s="10"/>
-      <c r="AP48" s="10"/>
-      <c r="AQ48" s="10"/>
-      <c r="AR48" s="10"/>
-      <c r="AS48" s="10"/>
-      <c r="AT48" s="10"/>
-      <c r="AU48" s="10"/>
-      <c r="AV48" s="10"/>
-      <c r="AW48" s="10"/>
-      <c r="AX48" s="10"/>
-      <c r="AY48" s="10"/>
-      <c r="AZ48" s="10"/>
-      <c r="BA48" s="10"/>
-      <c r="BB48" s="10"/>
-      <c r="BC48" s="10"/>
-      <c r="BD48" s="10"/>
-      <c r="BE48" s="10"/>
-      <c r="BF48" s="10"/>
-      <c r="BG48" s="10"/>
-      <c r="BH48" s="10"/>
-      <c r="BI48" s="10"/>
-      <c r="BJ48" s="10"/>
-      <c r="BK48" s="10"/>
-      <c r="BL48" s="10"/>
-    </row>
-    <row r="49" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="6" t="s">
         <v>156</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="10"/>
-      <c r="AM49" s="10"/>
-      <c r="AN49" s="10"/>
-      <c r="AO49" s="10"/>
-      <c r="AP49" s="10"/>
-      <c r="AQ49" s="10"/>
-      <c r="AR49" s="10"/>
-      <c r="AS49" s="10"/>
-      <c r="AT49" s="10"/>
-      <c r="AU49" s="10"/>
-      <c r="AV49" s="10"/>
-      <c r="AW49" s="10"/>
-      <c r="AX49" s="10"/>
-      <c r="AY49" s="10"/>
-      <c r="AZ49" s="10"/>
-      <c r="BA49" s="10"/>
-      <c r="BB49" s="10"/>
-      <c r="BC49" s="10"/>
-      <c r="BD49" s="10"/>
-      <c r="BE49" s="10"/>
-      <c r="BF49" s="10"/>
-      <c r="BG49" s="10"/>
-      <c r="BH49" s="10"/>
-      <c r="BI49" s="10"/>
-      <c r="BJ49" s="10"/>
-      <c r="BK49" s="10"/>
-      <c r="BL49" s="10"/>
-    </row>
-    <row r="50" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="6" t="s">
         <v>160</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="10"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="10"/>
-      <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
-      <c r="AM50" s="10"/>
-      <c r="AN50" s="10"/>
-      <c r="AO50" s="10"/>
-      <c r="AP50" s="10"/>
-      <c r="AQ50" s="10"/>
-      <c r="AR50" s="10"/>
-      <c r="AS50" s="10"/>
-      <c r="AT50" s="10"/>
-      <c r="AU50" s="10"/>
-      <c r="AV50" s="10"/>
-      <c r="AW50" s="10"/>
-      <c r="AX50" s="10"/>
-      <c r="AY50" s="10"/>
-      <c r="AZ50" s="10"/>
-      <c r="BA50" s="10"/>
-      <c r="BB50" s="10"/>
-      <c r="BC50" s="10"/>
-      <c r="BD50" s="10"/>
-      <c r="BE50" s="10"/>
-      <c r="BF50" s="10"/>
-      <c r="BG50" s="10"/>
-      <c r="BH50" s="10"/>
-      <c r="BI50" s="10"/>
-      <c r="BJ50" s="10"/>
-      <c r="BK50" s="10"/>
-      <c r="BL50" s="10"/>
-    </row>
-    <row r="51" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -3455,13 +2590,13 @@
       <c r="D51" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -3473,13 +2608,13 @@
       <c r="D52" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -3491,13 +2626,13 @@
       <c r="D53" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>173</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -3509,13 +2644,13 @@
       <c r="D54" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -3527,13 +2662,13 @@
       <c r="D55" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>179</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -3545,13 +2680,13 @@
       <c r="D56" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -3563,13 +2698,13 @@
       <c r="D57" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="11" t="s">
         <v>166</v>
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>185</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -3581,13 +2716,13 @@
       <c r="D58" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="11" t="s">
         <v>188</v>
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -3599,13 +2734,13 @@
       <c r="D59" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="11" t="s">
         <v>188</v>
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>192</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -3617,89 +2752,31 @@
       <c r="D60" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="11" t="s">
         <v>188</v>
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="10"/>
-      <c r="AC61" s="10"/>
-      <c r="AD61" s="10"/>
-      <c r="AE61" s="10"/>
-      <c r="AF61" s="10"/>
-      <c r="AG61" s="10"/>
-      <c r="AH61" s="10"/>
-      <c r="AI61" s="10"/>
-      <c r="AJ61" s="10"/>
-      <c r="AK61" s="10"/>
-      <c r="AL61" s="10"/>
-      <c r="AM61" s="10"/>
-      <c r="AN61" s="10"/>
-      <c r="AO61" s="10"/>
-      <c r="AP61" s="10"/>
-      <c r="AQ61" s="10"/>
-      <c r="AR61" s="10"/>
-      <c r="AS61" s="10"/>
-      <c r="AT61" s="10"/>
-      <c r="AU61" s="10"/>
-      <c r="AV61" s="10"/>
-      <c r="AW61" s="10"/>
-      <c r="AX61" s="10"/>
-      <c r="AY61" s="10"/>
-      <c r="AZ61" s="10"/>
-      <c r="BA61" s="10"/>
-      <c r="BB61" s="10"/>
-      <c r="BC61" s="10"/>
-      <c r="BD61" s="10"/>
-      <c r="BE61" s="10"/>
-      <c r="BF61" s="10"/>
-      <c r="BG61" s="10"/>
-      <c r="BH61" s="10"/>
-      <c r="BI61" s="10"/>
-      <c r="BJ61" s="10"/>
-      <c r="BK61" s="10"/>
-      <c r="BL61" s="10"/>
-    </row>
-    <row r="62" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>198</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -3711,13 +2788,13 @@
       <c r="D62" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="11" t="s">
         <v>188</v>
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>201</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -3729,13 +2806,13 @@
       <c r="D63" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:64" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>205</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -3747,13 +2824,13 @@
       <c r="D64" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -3765,13 +2842,13 @@
       <c r="D65" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -3783,13 +2860,13 @@
       <c r="D66" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3801,13 +2878,13 @@
       <c r="D67" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>217</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -3819,13 +2896,13 @@
       <c r="D68" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -3837,13 +2914,13 @@
       <c r="D69" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>223</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -3855,31 +2932,31 @@
       <c r="D70" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="13" t="s">
         <v>227</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -3891,45 +2968,45 @@
       <c r="D72" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E72" s="14"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
+    <row r="73" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
+    <row r="74" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>240</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -3941,11 +3018,11 @@
       <c r="D75" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="16" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>244</v>
       </c>
@@ -3959,8 +3036,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>247</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -3976,8 +3053,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>252</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -3993,8 +3070,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="10" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>256</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -4010,8 +3087,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>260</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -4027,7 +3104,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>263</v>
       </c>
@@ -4044,7 +3121,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>267</v>
       </c>
@@ -4061,7 +3138,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>271</v>
       </c>
@@ -4078,7 +3155,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>274</v>
       </c>
@@ -4095,7 +3172,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>278</v>
       </c>
@@ -4112,7 +3189,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>282</v>
       </c>
@@ -4129,7 +3206,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>286</v>
       </c>
@@ -4142,11 +3219,11 @@
       <c r="D87" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>290</v>
       </c>
@@ -4163,7 +3240,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>295</v>
       </c>
@@ -4176,11 +3253,11 @@
       <c r="D89" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="15" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>299</v>
       </c>
@@ -4193,8 +3270,25 @@
       <c r="D90" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="15" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4246,6 +3340,7 @@
     <hyperlink ref="E88" r:id="rId45" xr:uid="{B6E15BE5-5FDD-324E-BC93-F1F45D4D42BB}"/>
     <hyperlink ref="E89" r:id="rId46" xr:uid="{20F6A3C3-0D34-F243-AF3B-2F6D9DB0F4EB}"/>
     <hyperlink ref="E90" r:id="rId47" xr:uid="{8F8793D2-4111-9D4A-8A38-8D2824574D36}"/>
+    <hyperlink ref="E91" r:id="rId48" xr:uid="{BE7994B6-39AC-456E-B133-6B1058FF6A77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="1.143700787401575" bottom="1.143700787401575" header="0.75" footer="0.75"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
